--- a/10v10/12/TAMU-Classic/TEXAS_TAMU.xlsx
+++ b/10v10/12/TAMU-Classic/TEXAS_TAMU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\live-stats\12\TAMU-Classic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghu\quidditch\10v10\12\TAMU-Classic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85642394-7DCC-49DD-9FB1-58573DBA1D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4250DD-3EDD-4995-8468-10F9789E5948}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="104">
   <si>
     <t>A</t>
   </si>
@@ -233,6 +235,114 @@
   </si>
   <si>
     <t>CARLY JORDAN</t>
+  </si>
+  <si>
+    <t>0012</t>
+  </si>
+  <si>
+    <t>0055</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>0156</t>
+  </si>
+  <si>
+    <t>0216</t>
+  </si>
+  <si>
+    <t>0240</t>
+  </si>
+  <si>
+    <t>0249</t>
+  </si>
+  <si>
+    <t>0330</t>
+  </si>
+  <si>
+    <t>0410</t>
+  </si>
+  <si>
+    <t>0456</t>
+  </si>
+  <si>
+    <t>0534</t>
+  </si>
+  <si>
+    <t>0606</t>
+  </si>
+  <si>
+    <t>0725</t>
+  </si>
+  <si>
+    <t>0643</t>
+  </si>
+  <si>
+    <t>9758</t>
+  </si>
+  <si>
+    <t>0828</t>
+  </si>
+  <si>
+    <t>0844</t>
+  </si>
+  <si>
+    <t>0936</t>
+  </si>
+  <si>
+    <t>0958</t>
+  </si>
+  <si>
+    <t>1031</t>
+  </si>
+  <si>
+    <t>1054</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1215</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>1313</t>
+  </si>
+  <si>
+    <t>1350</t>
+  </si>
+  <si>
+    <t>1422</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>1641</t>
+  </si>
+  <si>
+    <t>1749</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1821</t>
+  </si>
+  <si>
+    <t>1845</t>
   </si>
 </sst>
 </file>
@@ -511,10 +621,14 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,17 +636,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,8 +864,8 @@
   </sheetPr>
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -784,21 +894,21 @@
     <row r="1" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
       <c r="R1" s="1"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
@@ -811,140 +921,140 @@
     </row>
     <row r="2" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="19" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="19">
+      <c r="J2" s="16"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="23">
         <f>COUNTIFS(A:A,"G*") + COUNTIFS(G:G,"G*")+COUNTIFS(M:M,"G*")+COUNTIFS(S:S,"G*")</f>
         <v>9</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="25" t="str">
+      <c r="M2" s="16"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="24" t="str">
         <f>IF(COUNTIF($A$7:$X$59,"RCA"),"*","")&amp;IF(COUNTIF($A$7:$X$59,"OCA"),"^","")&amp;IF(COUNTIF($R$7:$X$59,"2CA"),"!","")</f>
         <v>*</v>
       </c>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="26" t="str">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="15" t="str">
         <f>CONCATENATE(LEN(O2)*30+L2*10,O2)</f>
         <v>120*</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="21"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="17"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="19"/>
+      <c r="W3" s="20"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="19">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="23">
         <f>COUNTIFS(D:D,"G*")+COUNTIFS(J:J,"G*")+COUNTIFS(P:P,"G*")+COUNTIFS(V:V,"G*")</f>
         <v>6</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="25" t="str">
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="24" t="str">
         <f>IF(COUNTIF($A$7:$R$59,"RCB"),"*","")&amp;IF(COUNTIF($A$7:$R$59,"OCB"),"^","")&amp;IF(COUNTIF($A$7:$R$59,"2CB"),"!","")</f>
         <v/>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="26" t="str">
+      <c r="P4" s="16"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="15" t="str">
         <f>CONCATENATE(LEN(O4)*30+L4*10,O4)</f>
         <v>60</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="21"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="17"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="24"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="20"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
@@ -982,52 +1092,68 @@
       <c r="B7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="D7" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="5"/>
+      <c r="R7" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="S7" s="6"/>
       <c r="T7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="3"/>
+      <c r="U7" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="V7" s="4" t="s">
         <v>59</v>
       </c>
       <c r="W7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="5"/>
+      <c r="X7" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8" s="8">
         <v>20</v>
@@ -1077,7 +1203,7 @@
         <v>58</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T8" s="8">
         <v>8</v>
@@ -1130,44 +1256,60 @@
       <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="D10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R10" s="5"/>
+      <c r="R10" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="S10" s="6"/>
       <c r="T10" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U10" s="3"/>
+      <c r="U10" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="V10" s="4"/>
       <c r="W10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="X10" s="5"/>
+      <c r="X10" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
@@ -1274,42 +1416,58 @@
       <c r="B13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>85</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R13" s="5"/>
+      <c r="R13" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="S13" s="6"/>
       <c r="T13" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U13" s="3"/>
+      <c r="U13" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="V13" s="4"/>
       <c r="W13" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="X13" s="5"/>
+      <c r="X13" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
@@ -1416,44 +1574,60 @@
       <c r="B16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="D16" s="4"/>
       <c r="E16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>93</v>
+      </c>
       <c r="G16" s="6" t="s">
         <v>63</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="O16" s="3"/>
+      <c r="O16" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="R16" s="5"/>
+      <c r="R16" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="S16" s="6"/>
       <c r="T16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="3"/>
+      <c r="U16" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="V16" s="4"/>
       <c r="W16" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="X16" s="5"/>
+      <c r="X16" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
@@ -1566,22 +1740,30 @@
       <c r="B19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="5"/>
+      <c r="F19" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="J19" s="4"/>
       <c r="K19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="10" t="s">
         <v>0</v>
@@ -28989,13 +29171,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="R2:W3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H5"/>
-    <mergeCell ref="I4:K5"/>
-    <mergeCell ref="L4:N5"/>
-    <mergeCell ref="O4:Q5"/>
-    <mergeCell ref="R4:W5"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:N1"/>
@@ -29005,6 +29180,13 @@
     <mergeCell ref="I2:K3"/>
     <mergeCell ref="L2:N3"/>
     <mergeCell ref="O2:Q3"/>
+    <mergeCell ref="R2:W3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H5"/>
+    <mergeCell ref="I4:K5"/>
+    <mergeCell ref="L4:N5"/>
+    <mergeCell ref="O4:Q5"/>
+    <mergeCell ref="R4:W5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -29019,7 +29201,7 @@
   </sheetPr>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
